--- a/biology/Microbiologie/Oceanospirillaceae/Oceanospirillaceae.xlsx
+++ b/biology/Microbiologie/Oceanospirillaceae/Oceanospirillaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Oceanospirillaceae sont une des familles de bactéries de l'ordre Oceanospirillales. Ce sont des bactéries marines à Gram négatif de la classe des Gammaproteobacteria.
 </t>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est dans le Bergey's Manual of Systematic Bacteriology que Garrity propose en 2005 le nom de Oceanospirillaceae pour représenter cette nouvelle famille bactérienne[1]. Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est dans le Bergey's Manual of Systematic Bacteriology que Garrity propose en 2005 le nom de Oceanospirillaceae pour représenter cette nouvelle famille bactérienne. Le nom est validé par l'ICSP et publié en novembre 2005 dans une publication de l'IJSEM.
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-L'étymologie de la famille Oceanospirillaceae est la suivante : N.L. neut. dim. n. Oceanospirillum, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour définir une famille; N.L. fem. pl. n. Oceanospirillaceae, la famille des Oceanospirillum[1],[3].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie de la famille Oceanospirillaceae est la suivante : N.L. neut. dim. n. Oceanospirillum, genre type de la famille; L. fem. pl. n. suff. -aceae, suffixe utilisé pour définir une famille; N.L. fem. pl. n. Oceanospirillaceae, la famille des Oceanospirillum,.
 </t>
         </is>
       </c>
@@ -574,9 +593,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon LPSN  (20 novembre 2022)[4], la famille des Oceanospirillaceae comprend 23 genres publiés de manière valide et 4 genres publiés de manière non valide[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (20 novembre 2022), la famille des Oceanospirillaceae comprend 23 genres publiés de manière valide et 4 genres publiés de manière non valide :
 Amphritea Gärtner et al. 2008
 Bacterioplanes Wang et al. 2016
 Bacterioplanoides Wang et al. 2016
@@ -600,8 +621,43 @@
 Pseudospirillum Satomi et al. 2002
 Reinekea Romanenko et al. 2004
 Thalassolituus Yakimov et al. 2004
-Genres publiés de manière non valide
-Aliamphritea Yamano et al. 2022
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oceanospirillaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oceanospirillaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Genres publiés de manière non valide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Aliamphritea Yamano et al. 2022
 Pelagitalea Lee et al. 2015
 Profundimonas Cao et al. 2014
 Venatorbacter Saeedi et al. 2021</t>
